--- a/managementCommandsFiles/RecordIdentifiersFeb13.xlsx
+++ b/managementCommandsFiles/RecordIdentifiersFeb13.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="374">
   <si>
     <t xml:space="preserve">Record Identifier ID</t>
   </si>
@@ -1136,6 +1136,12 @@
   </si>
   <si>
     <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action</t>
   </si>
 </sst>
 </file>
@@ -1552,9 +1558,9 @@
   <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F135" activeCellId="0" sqref="F135"/>
+      <selection pane="bottomLeft" activeCell="F145" activeCellId="0" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4345,22 +4351,38 @@
       </c>
     </row>
     <row r="135" s="9" customFormat="true" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="30"/>
+      <c r="A135" s="30" t="n">
+        <v>134</v>
+      </c>
       <c r="B135" s="13"/>
       <c r="C135" s="14"/>
       <c r="E135" s="20"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="30"/>
-      <c r="H135" s="30"/>
+      <c r="F135" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="G135" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" s="21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" s="9" customFormat="true" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="30"/>
+      <c r="A136" s="30" t="n">
+        <v>135</v>
+      </c>
       <c r="B136" s="13"/>
       <c r="C136" s="14"/>
       <c r="E136" s="20"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="30"/>
-      <c r="H136" s="30"/>
+      <c r="F136" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="G136" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" s="21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" s="9" customFormat="true" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="30"/>
